--- a/02_electrical_plus/02_damiao_mc02/02_usb/test_usb.xlsx
+++ b/02_electrical_plus/02_damiao_mc02/02_usb/test_usb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Organization\1_RoboWalker\Admin\train\main\02_electrical_plus\02_damiao_mc02\02_usb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11E7D62-0922-4354-B44F-14CC77FA7DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07051036-80D3-4F22-9582-3894873D14B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{440ED87A-7A11-465C-AD38-6898698AFA1E}"/>
   </bookViews>
@@ -146,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USB1.0的数据包和令牌包格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>接收方的端点号
 SOF包中该字段意义不同</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +153,10 @@
   <si>
     <t>接收方的设备地址
 SOF包中该字段意义不同, 该字段同下一字段组成的11bit共同作为FrameNumber帧序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB1.0的数据包格式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -344,6 +344,27 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -352,27 +373,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2015765D-CA3B-4168-82F9-F297C6291495}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.45"/>
@@ -710,13 +710,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="11"/>
+      <c r="A1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -730,7 +730,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="63" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -739,12 +739,12 @@
       <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -753,12 +753,12 @@
       <c r="C4" s="5">
         <v>8</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="8"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
@@ -770,19 +770,19 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="47.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="8"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="9"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -794,7 +794,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -803,7 +803,7 @@
       <c r="C8" s="4">
         <v>3</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -813,13 +813,13 @@
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -833,7 +833,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -842,12 +842,12 @@
       <c r="C12" s="5">
         <v>8</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="8"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
@@ -859,31 +859,31 @@
       </c>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="8"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="5">
         <v>7</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>27</v>
+      <c r="D14" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="8"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="5">
         <v>4</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>26</v>
+      <c r="D15" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="9"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="5" t="s">
         <v>4</v>
       </c>
@@ -895,13 +895,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="13"/>
     </row>
     <row r="19" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -915,7 +915,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -924,12 +924,12 @@
       <c r="C20" s="5">
         <v>8</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="8"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="5" t="s">
         <v>8</v>
       </c>
@@ -940,26 +940,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45"/>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45"/>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45"/>
+      <c r="B23" s="13"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/02_electrical_plus/02_damiao_mc02/02_usb/test_usb.xlsx
+++ b/02_electrical_plus/02_damiao_mc02/02_usb/test_usb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Organization\1_RoboWalker\Admin\train\main\02_electrical_plus\02_damiao_mc02\02_usb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07051036-80D3-4F22-9582-3894873D14B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD990EB-46D9-4584-A97F-BF2354B56435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{440ED87A-7A11-465C-AD38-6898698AFA1E}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{440ED87A-7A11-465C-AD38-6898698AFA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>分段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,14 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USB1.0的握手包格式, 相比数据包, 仅在传输帧部分不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB1.0的令牌包格式, 相比数据包, 仅在传输帧部分不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>USB1.0的特殊包只有PRE包, 给集线器用的, 暂不考虑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,6 +149,18 @@
   </si>
   <si>
     <t>USB1.0的数据包格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相比数据包, 仅在传输帧部分不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB1.0的令牌包格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB1.0的握手包格式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -316,13 +320,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -359,19 +374,25 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -696,26 +717,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2015765D-CA3B-4168-82F9-F297C6291495}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.8125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.6875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.25" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="16"/>
+    </row>
+    <row r="2" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -744,7 +766,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -758,7 +780,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="15"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
@@ -770,7 +792,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="47.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="15"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
@@ -782,7 +804,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="16"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -807,16 +829,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" s="1" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="13"/>
+      <c r="A10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="18" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
@@ -833,7 +859,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -847,7 +873,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="15"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
@@ -859,7 +885,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="15"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
@@ -867,11 +893,11 @@
         <v>7</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="15"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
@@ -879,11 +905,11 @@
         <v>4</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="16"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="5" t="s">
         <v>4</v>
       </c>
@@ -895,10 +921,14 @@
       </c>
     </row>
     <row r="18" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="13"/>
+      <c r="A18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="18" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="19" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="10" t="s">
@@ -915,7 +945,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -929,7 +959,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="15"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="5" t="s">
         <v>8</v>
       </c>
@@ -940,26 +970,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.4">
-      <c r="A23" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="13"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="16"/>
+    </row>
     <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.4"/>
     <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.4"/>
     <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
